--- a/Team C-Sprint1-MRR.xlsx
+++ b/Team C-Sprint1-MRR.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph_000\Documents\Academics\Spring 2020\Software Engineering II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB55DF4-C853-4D6A-8B6F-1E8C2C2FAE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC02285-0121-4660-8E8E-F85C3C396D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB82D45D-01D9-4524-9DA4-0F202D2FB0D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>MRR Report</t>
   </si>
@@ -143,7 +143,16 @@
     <t>Images do not fit well across different devices/screen sizes. Ex) Iphone 8 vs Android Tablet.</t>
   </si>
   <si>
-    <t>User input for email address does not check for valid input. Should have reg expression to check for @ symbol.</t>
+    <t>User password input should be 8 or more characters, there is no validation.</t>
+  </si>
+  <si>
+    <t>When the user enters an incorrect email/password combo the error message persists on the screen even after the input fields are changed.</t>
+  </si>
+  <si>
+    <t>Invalid login</t>
+  </si>
+  <si>
+    <t>User input for email address does not check for valid input. Should have reg expression to check for '@' at least.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,12 +222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
@@ -437,16 +440,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,6 +482,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,38 +499,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1798FD1-951D-4CA2-9F2B-F592FB3594BD}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,41 +842,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="16"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="H2" s="22" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="13">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -881,15 +884,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="14">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -897,15 +900,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="15">
         <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -913,15 +916,15 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="33"/>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="16">
         <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -967,133 +970,195 @@
       <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="19">
         <v>43862</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="20">
         <v>4</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="19">
+        <v>43863</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19">
+        <v>43864</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="19">
+        <v>43864</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19">
+        <v>43864</v>
+      </c>
+      <c r="E15" s="20">
+        <v>4</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
-        <v>2</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="36">
-        <v>43863</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="D16" s="19">
+        <v>43865</v>
+      </c>
+      <c r="E16" s="20">
         <v>4</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
-        <v>3</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="36">
-        <v>43864</v>
-      </c>
-      <c r="E13" s="40">
-        <v>2</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
-        <v>4</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="36">
-        <v>43864</v>
-      </c>
-      <c r="E14" s="37">
-        <v>4</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="16"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
@@ -1109,5 +1174,6 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>